--- a/Nipro-Dialysis-App.xlsx
+++ b/Nipro-Dialysis-App.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25300" windowHeight="14540"/>
+    <workbookView windowWidth="25300" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
   <si>
     <t>Project Name</t>
   </si>
@@ -901,18 +901,63 @@
 5. Click Add Doctor option
 6. Checking spelling</t>
   </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6. Click Save</t>
+  </si>
+  <si>
+    <t>Should not Allow Add Doctor</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6. Keeping all fields blank
+7. Click Save</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6. Keeping Required fields blank
+7. Click Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be allow add Doctor </t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6. Keeping Unrequired fields blank
+7. Click Save</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,6 +988,12 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.25"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman Regular"/>
       <charset val="134"/>
     </font>
@@ -1029,14 +1080,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,16 +1124,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,16 +1170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,45 +1186,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,7 +1274,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,13 +1316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,7 +1340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,13 +1352,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,67 +1382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,12 +1400,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1398,6 +1407,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1609,35 +1660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1671,8 +1698,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1691,147 +1733,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1841,7 +1892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1890,6 +1941,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1902,16 +1956,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,10 +1974,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1932,7 +1986,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1944,7 +1998,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1962,70 +2016,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="58" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,7 +2446,7 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
@@ -2405,241 +2462,241 @@
   <sheetData>
     <row r="1" ht="15.5" customHeight="1"/>
     <row r="2" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:5">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" ht="14.75" spans="1:5">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:5">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="14.75" spans="1:5">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:5">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="60">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="14.75" spans="1:5">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="60">
         <v>3</v>
       </c>
     </row>
     <row r="13" ht="14.75" spans="1:5">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="60">
         <v>3</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:5">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="60">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:5">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="58"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="60"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="59" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="60">
         <v>24</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:5">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="60"/>
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:5">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="58"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" ht="22" customHeight="1" spans="1:5">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:5">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="58"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="60"/>
     </row>
     <row r="21" ht="22" customHeight="1" spans="1:5">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="58"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:5">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="58"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" ht="22" customHeight="1" spans="1:5">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="58"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" ht="22" customHeight="1" spans="1:5">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="58"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2660,12 +2717,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63:A70"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2697,10 +2754,10 @@
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="32"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2714,12 +2771,12 @@
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="34" t="s">
         <v>34</v>
       </c>
       <c r="L2" s="5">
-        <f>COUNTIF(K9:K71,"Passed")</f>
-        <v>39</v>
+        <f>COUNTIF(K9:K200,"Passed")</f>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2731,18 +2788,18 @@
       <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="35" t="s">
         <v>38</v>
       </c>
       <c r="L3" s="5">
-        <f>COUNTIF(K9:K71,"Failed")</f>
+        <f>COUNTIF(K9:K200,"Failed")</f>
         <v>11</v>
       </c>
     </row>
@@ -2758,11 +2815,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="36" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="5">
-        <f>COUNTIF(K9:K71,"Not Executed")</f>
+        <f>COUNTIF(K9:K200,"Not Executed")</f>
         <v>1</v>
       </c>
     </row>
@@ -2774,21 +2831,21 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="37" t="s">
         <v>42</v>
       </c>
       <c r="L5" s="5">
-        <f>COUNTIF(K9:K71,"Out of Scope")</f>
+        <f>COUNTIF(K9:K200,"Out of Scope")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="11:12">
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="39">
         <f>SUM(L2:L5)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="32" customHeight="1" spans="1:11">
@@ -2835,23 +2892,23 @@
         <v>55</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="19" t="s">
         <v>60</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2860,15 +2917,15 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" ht="42" customHeight="1" spans="1:11">
       <c r="A11" s="9">
@@ -2879,7 +2936,7 @@
       <c r="D11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -2888,14 +2945,14 @@
       <c r="G11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="19" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="10"/>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2907,7 +2964,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -2916,14 +2973,14 @@
       <c r="G12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="19" t="s">
         <v>69</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2935,23 +2992,23 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="19" t="s">
         <v>73</v>
       </c>
       <c r="J13" s="10"/>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2972,14 +3029,14 @@
       <c r="G14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="19" t="s">
         <v>76</v>
       </c>
       <c r="J14" s="10"/>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2994,20 +3051,20 @@
       <c r="E15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="24" t="s">
         <v>78</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="19" t="s">
         <v>80</v>
       </c>
       <c r="J15" s="10"/>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3028,14 +3085,14 @@
       <c r="G16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="19" t="s">
         <v>85</v>
       </c>
       <c r="J16" s="10"/>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="40" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3056,14 +3113,14 @@
       <c r="G17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="19" t="s">
         <v>76</v>
       </c>
       <c r="J17" s="10"/>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3072,13 +3129,13 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" ht="42" customHeight="1" spans="1:11">
       <c r="A19" s="9">
@@ -3100,14 +3157,14 @@
       <c r="G19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="19" t="s">
         <v>93</v>
       </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3131,11 +3188,11 @@
       <c r="H20" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="19" t="s">
         <v>96</v>
       </c>
       <c r="J20" s="10"/>
-      <c r="K20" s="39" t="s">
+      <c r="K20" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3156,14 +3213,14 @@
       <c r="G21" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="19" t="s">
         <v>99</v>
       </c>
       <c r="J21" s="10"/>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3183,17 +3240,17 @@
       <c r="F22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="19" t="s">
         <v>103</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3211,17 +3268,17 @@
       <c r="F23" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="19" t="s">
         <v>103</v>
       </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3239,17 +3296,17 @@
       <c r="F24" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="19" t="s">
         <v>103</v>
       </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3269,17 +3326,17 @@
       <c r="F25" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
       <c r="J25" s="10"/>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3297,17 +3354,17 @@
       <c r="F26" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="19" t="s">
         <v>116</v>
       </c>
       <c r="J26" s="10"/>
-      <c r="K26" s="39" t="s">
+      <c r="K26" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3325,17 +3382,17 @@
       <c r="F27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="19" t="s">
         <v>69</v>
       </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3359,11 +3416,11 @@
       <c r="H28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="19" t="s">
         <v>122</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3384,14 +3441,14 @@
       <c r="G29" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="19" t="s">
         <v>125</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3412,14 +3469,14 @@
       <c r="G30" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="19" t="s">
         <v>128</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3440,14 +3497,14 @@
       <c r="G31" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="19" t="s">
         <v>131</v>
       </c>
       <c r="J31" s="10"/>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3468,14 +3525,14 @@
       <c r="G32" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="19" t="s">
         <v>134</v>
       </c>
       <c r="J32" s="10"/>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3496,14 +3553,14 @@
       <c r="G33" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="19" t="s">
         <v>137</v>
       </c>
       <c r="J33" s="10"/>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3524,14 +3581,14 @@
       <c r="G34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="19" t="s">
         <v>140</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3552,14 +3609,14 @@
       <c r="G35" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="19" t="s">
         <v>143</v>
       </c>
       <c r="J35" s="10"/>
-      <c r="K35" s="39" t="s">
+      <c r="K35" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3568,20 +3625,20 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
     </row>
     <row r="37" ht="42" customHeight="1" spans="1:11">
       <c r="A37" s="9">
         <f>SUM(25+1)</f>
         <v>26</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="16" t="s">
         <v>144</v>
       </c>
       <c r="C37" s="9"/>
@@ -3597,14 +3654,14 @@
       <c r="G37" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="19" t="s">
         <v>148</v>
       </c>
       <c r="J37" s="10"/>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3625,14 +3682,14 @@
       <c r="G38" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="19" t="s">
         <v>148</v>
       </c>
       <c r="J38" s="10"/>
-      <c r="K38" s="39" t="s">
+      <c r="K38" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3653,14 +3710,14 @@
       <c r="G39" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="19" t="s">
         <v>148</v>
       </c>
       <c r="J39" s="10"/>
-      <c r="K39" s="39" t="s">
+      <c r="K39" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3681,14 +3738,14 @@
       <c r="G40" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="19" t="s">
         <v>153</v>
       </c>
       <c r="J40" s="10"/>
-      <c r="K40" s="39" t="s">
+      <c r="K40" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3709,14 +3766,14 @@
       <c r="G41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="19" t="s">
         <v>155</v>
       </c>
       <c r="J41" s="10"/>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3737,14 +3794,14 @@
       <c r="G42" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="19" t="s">
         <v>158</v>
       </c>
       <c r="J42" s="10"/>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3759,20 +3816,20 @@
       <c r="E43" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="31" t="s">
         <v>160</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="19" t="s">
         <v>162</v>
       </c>
       <c r="J43" s="10"/>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3793,16 +3850,16 @@
       <c r="G44" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="18">
         <v>123456</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="J44" s="42" t="s">
+      <c r="J44" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="K44" s="39" t="s">
+      <c r="K44" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3823,16 +3880,16 @@
       <c r="G45" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J45" s="42" t="s">
+      <c r="J45" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3853,16 +3910,16 @@
       <c r="G46" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="19" t="s">
         <v>174</v>
       </c>
       <c r="J46" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="K46" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3883,14 +3940,14 @@
       <c r="G47" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="19" t="s">
         <v>178</v>
       </c>
       <c r="J47" s="10"/>
-      <c r="K47" s="39" t="s">
+      <c r="K47" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3911,14 +3968,14 @@
       <c r="G48" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H48" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="19" t="s">
         <v>181</v>
       </c>
       <c r="J48" s="10"/>
-      <c r="K48" s="39" t="s">
+      <c r="K48" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3933,20 +3990,20 @@
       <c r="E49" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="31" t="s">
         <v>160</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="I49" s="18" t="s">
+      <c r="I49" s="19" t="s">
         <v>184</v>
       </c>
       <c r="J49" s="10"/>
-      <c r="K49" s="39" t="s">
+      <c r="K49" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3967,16 +4024,16 @@
       <c r="G50" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="18">
         <v>778899</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="J50" s="42" t="s">
+      <c r="J50" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="K50" s="39" t="s">
+      <c r="K50" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3997,16 +4054,16 @@
       <c r="G51" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="H51" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="I51" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="J51" s="42" t="s">
+      <c r="J51" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="K51" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4027,16 +4084,16 @@
       <c r="G52" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H52" s="17" t="s">
+      <c r="H52" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="J52" s="42" t="s">
+      <c r="J52" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="K52" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4057,14 +4114,14 @@
       <c r="G53" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H53" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="I53" s="18" t="s">
+      <c r="I53" s="19" t="s">
         <v>195</v>
       </c>
       <c r="J53" s="10"/>
-      <c r="K53" s="39" t="s">
+      <c r="K53" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4085,14 +4142,14 @@
       <c r="G54" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H54" s="17" t="s">
+      <c r="H54" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="I54" s="18" t="s">
+      <c r="I54" s="19" t="s">
         <v>198</v>
       </c>
       <c r="J54" s="10"/>
-      <c r="K54" s="39" t="s">
+      <c r="K54" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4113,16 +4170,16 @@
       <c r="G55" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H55" s="17" t="s">
+      <c r="H55" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I55" s="18" t="s">
+      <c r="I55" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="J55" s="43" t="s">
+      <c r="J55" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="K55" s="39" t="s">
+      <c r="K55" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4143,16 +4200,16 @@
       <c r="G56" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="H56" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I56" s="18" t="s">
+      <c r="I56" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="J56" s="43" t="s">
+      <c r="J56" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="K56" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4173,16 +4230,16 @@
       <c r="G57" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H57" s="17" t="s">
+      <c r="H57" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="J57" s="43" t="s">
+      <c r="J57" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="K57" s="39" t="s">
+      <c r="K57" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4203,16 +4260,16 @@
       <c r="G58" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="H58" s="17" t="s">
+      <c r="H58" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="J58" s="43" t="s">
+      <c r="J58" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="K58" s="39" t="s">
+      <c r="K58" s="40" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4233,14 +4290,14 @@
       <c r="G59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H59" s="17" t="s">
+      <c r="H59" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="18" t="s">
+      <c r="I59" s="19" t="s">
         <v>214</v>
       </c>
       <c r="J59" s="10"/>
-      <c r="K59" s="39" t="s">
+      <c r="K59" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4261,14 +4318,14 @@
       <c r="G60" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H60" s="17" t="s">
+      <c r="H60" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="19" t="s">
         <v>217</v>
       </c>
       <c r="J60" s="10"/>
-      <c r="K60" s="39" t="s">
+      <c r="K60" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4277,13 +4334,13 @@
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
     </row>
     <row r="62" ht="42" customHeight="1" spans="1:11">
       <c r="A62" s="9">
@@ -4303,14 +4360,14 @@
       <c r="G62" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H62" s="17" t="s">
+      <c r="H62" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I62" s="18" t="s">
+      <c r="I62" s="19" t="s">
         <v>220</v>
       </c>
       <c r="J62" s="10"/>
-      <c r="K62" s="39" t="s">
+      <c r="K62" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4331,14 +4388,14 @@
       <c r="G63" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H63" s="17" t="s">
+      <c r="H63" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I63" s="18" t="s">
+      <c r="I63" s="19" t="s">
         <v>221</v>
       </c>
       <c r="J63" s="10"/>
-      <c r="K63" s="39" t="s">
+      <c r="K63" s="40" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4350,13 +4407,25 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
+      <c r="E64" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>222</v>
+      </c>
       <c r="J64" s="10"/>
-      <c r="K64" s="39"/>
+      <c r="K64" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="65" ht="42" customHeight="1" spans="1:11">
       <c r="A65" s="9">
@@ -4366,13 +4435,25 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
+      <c r="E65" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="J65" s="10"/>
-      <c r="K65" s="39"/>
+      <c r="K65" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="66" ht="42" customHeight="1" spans="1:11">
       <c r="A66" s="9">
@@ -4382,13 +4463,25 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="E66" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="J66" s="10"/>
-      <c r="K66" s="39"/>
+      <c r="K66" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="67" ht="42" customHeight="1" spans="1:11">
       <c r="A67" s="9">
@@ -4398,13 +4491,25 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
+      <c r="E67" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>227</v>
+      </c>
       <c r="J67" s="10"/>
-      <c r="K67" s="39"/>
+      <c r="K67" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="68" ht="42" customHeight="1" spans="1:11">
       <c r="A68" s="9">
@@ -4414,13 +4519,15 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
       <c r="J68" s="10"/>
-      <c r="K68" s="39"/>
+      <c r="K68" s="40"/>
     </row>
     <row r="69" ht="42" customHeight="1" spans="1:11">
       <c r="A69" s="9">
@@ -4430,13 +4537,15 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
+      <c r="E69" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
       <c r="J69" s="10"/>
-      <c r="K69" s="39"/>
+      <c r="K69" s="40"/>
     </row>
     <row r="70" ht="42" customHeight="1" spans="1:11">
       <c r="A70" s="9">
@@ -4446,26 +4555,1070 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
+      <c r="E70" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
       <c r="J70" s="10"/>
-      <c r="K70" s="39"/>
+      <c r="K70" s="40"/>
     </row>
     <row r="71" ht="42" customHeight="1" spans="1:11">
-      <c r="A71" s="9"/>
+      <c r="A71" s="9">
+        <f>SUM(A70+1)</f>
+        <v>59</v>
+      </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
+      <c r="E71" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
       <c r="J71" s="10"/>
-      <c r="K71" s="39"/>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" ht="42" customHeight="1" spans="1:11">
+      <c r="A72" s="9">
+        <f>SUM(A71+1)</f>
+        <v>60</v>
+      </c>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" ht="42" customHeight="1" spans="1:11">
+      <c r="A73" s="9">
+        <f>SUM(A72+1)</f>
+        <v>61</v>
+      </c>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" ht="42" customHeight="1" spans="1:11">
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="45"/>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" ht="42" customHeight="1" spans="1:11">
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="40"/>
+    </row>
+    <row r="76" ht="42" customHeight="1" spans="1:11">
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="40"/>
+    </row>
+    <row r="77" ht="42" customHeight="1" spans="1:11">
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="40"/>
+    </row>
+    <row r="78" ht="42" customHeight="1" spans="1:11">
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="40"/>
+    </row>
+    <row r="79" ht="42" customHeight="1" spans="1:11">
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="40"/>
+    </row>
+    <row r="80" ht="42" customHeight="1" spans="1:11">
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="40"/>
+    </row>
+    <row r="81" ht="42" customHeight="1" spans="1:11">
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="40"/>
+    </row>
+    <row r="82" ht="42" customHeight="1" spans="1:11">
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="40"/>
+    </row>
+    <row r="83" ht="42" customHeight="1" spans="1:11">
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="40"/>
+    </row>
+    <row r="84" ht="42" customHeight="1" spans="1:11">
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="40"/>
+    </row>
+    <row r="85" ht="42" customHeight="1" spans="1:11">
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="40"/>
+    </row>
+    <row r="86" ht="42" customHeight="1" spans="1:11">
+      <c r="A86" s="45"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="40"/>
+    </row>
+    <row r="87" ht="42" customHeight="1" spans="1:11">
+      <c r="A87" s="45"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="40"/>
+    </row>
+    <row r="88" ht="42" customHeight="1" spans="1:11">
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="40"/>
+    </row>
+    <row r="89" ht="42" customHeight="1" spans="1:11">
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="40"/>
+    </row>
+    <row r="90" ht="42" customHeight="1" spans="1:11">
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="40"/>
+    </row>
+    <row r="91" ht="42" customHeight="1" spans="1:11">
+      <c r="A91" s="45"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="40"/>
+    </row>
+    <row r="92" ht="42" customHeight="1" spans="1:11">
+      <c r="A92" s="45"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="40"/>
+    </row>
+    <row r="93" ht="42" customHeight="1" spans="1:11">
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="40"/>
+    </row>
+    <row r="94" ht="42" customHeight="1" spans="1:11">
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
+      <c r="I94" s="45"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="40"/>
+    </row>
+    <row r="95" ht="42" customHeight="1" spans="1:11">
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+      <c r="K95" s="40"/>
+    </row>
+    <row r="96" ht="42" customHeight="1" spans="1:11">
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="40"/>
+    </row>
+    <row r="97" ht="42" customHeight="1" spans="1:11">
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
+      <c r="I97" s="45"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="40"/>
+    </row>
+    <row r="98" ht="42" customHeight="1" spans="1:11">
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="40"/>
+    </row>
+    <row r="99" ht="42" customHeight="1" spans="1:11">
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="40"/>
+    </row>
+    <row r="100" ht="42" customHeight="1" spans="1:11">
+      <c r="A100" s="45"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
+      <c r="I100" s="45"/>
+      <c r="J100" s="45"/>
+      <c r="K100" s="40"/>
+    </row>
+    <row r="101" ht="42" customHeight="1" spans="1:11">
+      <c r="A101" s="45"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="40"/>
+    </row>
+    <row r="102" ht="42" customHeight="1" spans="1:11">
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+      <c r="K102" s="40"/>
+    </row>
+    <row r="103" ht="42" customHeight="1" spans="1:11">
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="45"/>
+      <c r="K103" s="40"/>
+    </row>
+    <row r="104" ht="42" customHeight="1" spans="1:11">
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="45"/>
+      <c r="K104" s="40"/>
+    </row>
+    <row r="105" ht="42" customHeight="1" spans="1:11">
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="40"/>
+    </row>
+    <row r="106" ht="42" customHeight="1" spans="1:11">
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="45"/>
+      <c r="K106" s="40"/>
+    </row>
+    <row r="107" ht="42" customHeight="1" spans="1:11">
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="45"/>
+      <c r="K107" s="40"/>
+    </row>
+    <row r="108" ht="42" customHeight="1" spans="1:11">
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="45"/>
+      <c r="K108" s="40"/>
+    </row>
+    <row r="109" ht="42" customHeight="1" spans="1:11">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="40"/>
+    </row>
+    <row r="110" ht="42" customHeight="1" spans="1:11">
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="40"/>
+    </row>
+    <row r="111" ht="42" customHeight="1" spans="1:11">
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="40"/>
+    </row>
+    <row r="112" ht="42" customHeight="1" spans="1:11">
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="40"/>
+    </row>
+    <row r="113" ht="42" customHeight="1" spans="1:11">
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+      <c r="K113" s="40"/>
+    </row>
+    <row r="114" ht="42" customHeight="1" spans="1:11">
+      <c r="A114" s="45"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+      <c r="K114" s="40"/>
+    </row>
+    <row r="115" ht="42" customHeight="1" spans="1:11">
+      <c r="A115" s="45"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
+      <c r="K115" s="40"/>
+    </row>
+    <row r="116" ht="42" customHeight="1" spans="1:11">
+      <c r="A116" s="45"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="45"/>
+      <c r="K116" s="40"/>
+    </row>
+    <row r="117" ht="42" customHeight="1" spans="1:11">
+      <c r="A117" s="45"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="45"/>
+      <c r="K117" s="40"/>
+    </row>
+    <row r="118" ht="42" customHeight="1" spans="1:11">
+      <c r="A118" s="45"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="45"/>
+      <c r="J118" s="45"/>
+      <c r="K118" s="40"/>
+    </row>
+    <row r="119" ht="42" customHeight="1" spans="1:11">
+      <c r="A119" s="45"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="45"/>
+      <c r="J119" s="45"/>
+      <c r="K119" s="40"/>
+    </row>
+    <row r="120" ht="42" customHeight="1" spans="1:11">
+      <c r="A120" s="45"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="45"/>
+      <c r="I120" s="45"/>
+      <c r="J120" s="45"/>
+      <c r="K120" s="40"/>
+    </row>
+    <row r="121" ht="42" customHeight="1" spans="1:11">
+      <c r="A121" s="45"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="40"/>
+    </row>
+    <row r="122" ht="42" customHeight="1" spans="1:11">
+      <c r="A122" s="45"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="45"/>
+      <c r="J122" s="45"/>
+      <c r="K122" s="40"/>
+    </row>
+    <row r="123" ht="42" customHeight="1" spans="1:11">
+      <c r="A123" s="45"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="45"/>
+      <c r="J123" s="45"/>
+      <c r="K123" s="40"/>
+    </row>
+    <row r="124" ht="42" customHeight="1" spans="1:11">
+      <c r="A124" s="45"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="45"/>
+      <c r="J124" s="45"/>
+      <c r="K124" s="40"/>
+    </row>
+    <row r="125" ht="42" customHeight="1" spans="1:11">
+      <c r="A125" s="45"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="45"/>
+      <c r="J125" s="45"/>
+      <c r="K125" s="40"/>
+    </row>
+    <row r="126" ht="42" customHeight="1" spans="1:11">
+      <c r="A126" s="45"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="45"/>
+      <c r="K126" s="40"/>
+    </row>
+    <row r="127" ht="42" customHeight="1" spans="1:11">
+      <c r="A127" s="45"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="45"/>
+      <c r="I127" s="45"/>
+      <c r="J127" s="45"/>
+      <c r="K127" s="40"/>
+    </row>
+    <row r="128" ht="42" customHeight="1" spans="1:11">
+      <c r="A128" s="45"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="45"/>
+      <c r="J128" s="45"/>
+      <c r="K128" s="40"/>
+    </row>
+    <row r="129" ht="42" customHeight="1" spans="1:11">
+      <c r="A129" s="45"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="45"/>
+      <c r="K129" s="40"/>
+    </row>
+    <row r="130" ht="42" customHeight="1" spans="1:11">
+      <c r="A130" s="45"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="45"/>
+      <c r="J130" s="45"/>
+      <c r="K130" s="40"/>
+    </row>
+    <row r="131" ht="42" customHeight="1" spans="1:11">
+      <c r="A131" s="45"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="45"/>
+      <c r="I131" s="45"/>
+      <c r="J131" s="45"/>
+      <c r="K131" s="40"/>
+    </row>
+    <row r="132" ht="42" customHeight="1" spans="1:11">
+      <c r="A132" s="45"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="45"/>
+      <c r="I132" s="45"/>
+      <c r="J132" s="45"/>
+      <c r="K132" s="40"/>
+    </row>
+    <row r="133" ht="42" customHeight="1" spans="1:11">
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="45"/>
+      <c r="I133" s="45"/>
+      <c r="J133" s="45"/>
+      <c r="K133" s="40"/>
+    </row>
+    <row r="134" ht="42" customHeight="1" spans="1:11">
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="45"/>
+      <c r="I134" s="45"/>
+      <c r="J134" s="45"/>
+      <c r="K134" s="40"/>
+    </row>
+    <row r="135" ht="42" customHeight="1" spans="1:11">
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="45"/>
+      <c r="I135" s="45"/>
+      <c r="J135" s="45"/>
+      <c r="K135" s="40"/>
+    </row>
+    <row r="136" ht="42" customHeight="1" spans="1:11">
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="45"/>
+      <c r="K136" s="40"/>
+    </row>
+    <row r="137" ht="42" customHeight="1" spans="1:11">
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="45"/>
+      <c r="K137" s="40"/>
+    </row>
+    <row r="138" ht="42" customHeight="1" spans="1:11">
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="45"/>
+      <c r="J138" s="45"/>
+      <c r="K138" s="40"/>
+    </row>
+    <row r="139" ht="42" customHeight="1" spans="1:11">
+      <c r="A139" s="45"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="45"/>
+      <c r="J139" s="45"/>
+      <c r="K139" s="40"/>
+    </row>
+    <row r="140" ht="42" customHeight="1" spans="1:11">
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="45"/>
+      <c r="H140" s="45"/>
+      <c r="I140" s="45"/>
+      <c r="J140" s="45"/>
+      <c r="K140" s="40"/>
+    </row>
+    <row r="141" ht="42" customHeight="1" spans="1:11">
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
+      <c r="H141" s="45"/>
+      <c r="I141" s="45"/>
+      <c r="J141" s="45"/>
+      <c r="K141" s="40"/>
+    </row>
+    <row r="142" ht="42" customHeight="1" spans="1:11">
+      <c r="A142" s="45"/>
+      <c r="B142" s="45"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="45"/>
+      <c r="I142" s="45"/>
+      <c r="J142" s="45"/>
+      <c r="K142" s="40"/>
+    </row>
+    <row r="143" ht="42" customHeight="1" spans="1:11">
+      <c r="A143" s="45"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="45"/>
+      <c r="H143" s="45"/>
+      <c r="I143" s="45"/>
+      <c r="J143" s="45"/>
+      <c r="K143" s="40"/>
+    </row>
+    <row r="144" ht="42" customHeight="1" spans="1:11">
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="45"/>
+      <c r="H144" s="45"/>
+      <c r="I144" s="45"/>
+      <c r="J144" s="45"/>
+      <c r="K144" s="40"/>
+    </row>
+    <row r="145" ht="42" customHeight="1" spans="1:11">
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="45"/>
+      <c r="I145" s="45"/>
+      <c r="J145" s="45"/>
+      <c r="K145" s="40"/>
+    </row>
+    <row r="146" ht="42" customHeight="1" spans="1:11">
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="45"/>
+      <c r="I146" s="45"/>
+      <c r="J146" s="45"/>
+      <c r="K146" s="40"/>
+    </row>
+    <row r="147" ht="42" customHeight="1" spans="1:11">
+      <c r="A147" s="45"/>
+      <c r="B147" s="45"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="45"/>
+      <c r="I147" s="45"/>
+      <c r="J147" s="45"/>
+      <c r="K147" s="40"/>
+    </row>
+    <row r="148" ht="42" customHeight="1" spans="1:11">
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
+      <c r="J148" s="45"/>
+      <c r="K148" s="40"/>
+    </row>
+    <row r="149" ht="42" customHeight="1" spans="1:11">
+      <c r="A149" s="45"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="45"/>
+      <c r="J149" s="45"/>
+      <c r="K149" s="40"/>
+    </row>
+    <row r="150" ht="42" customHeight="1" spans="1:11">
+      <c r="A150" s="45"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="45"/>
+      <c r="J150" s="45"/>
+      <c r="K150" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4498,7 +5651,7 @@
       <formula>NOT(ISERROR(SEARCH("Not Executed",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:K48 K55:K71">
+  <conditionalFormatting sqref="K9:K48 K55:K150">
     <cfRule type="containsText" dxfId="3" priority="6" operator="between" text="Not Executed">
       <formula>NOT(ISERROR(SEARCH("Not Executed",K9)))</formula>
     </cfRule>
@@ -4516,7 +5669,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K24 K39 K9:K23 K25:K28 K29:K31 K32:K38 K40:K48 K49:K54 K55:K71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K24 K39 K9:K23 K25:K28 K29:K31 K32:K38 K40:K48 K49:K54 K55:K70 K71:K150">
       <formula1>"Failed,Not Executed,Out of Scope,Passed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Nipro-Dialysis-App.xlsx
+++ b/Nipro-Dialysis-App.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25300" windowHeight="14540" activeTab="1"/>
+    <workbookView windowWidth="24020" windowHeight="14980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="238">
   <si>
     <t>Project Name</t>
   </si>
@@ -946,16 +946,88 @@
 6. Keeping Unrequired fields blank
 7. Click Save</t>
   </si>
+  <si>
+    <t>SsaaKK</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6. Input Case insensitive data
+7. Click Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should not be allow add Doctor </t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6. Input Number in name Field
+7. Click Save</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6.Inputing Special Character on name Field
+7. Click Save</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6. Inputing blank at first position
+7. Click Save</t>
+  </si>
+  <si>
+    <t>Sha</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6. Input 3 character
+7. Click Save</t>
+  </si>
+  <si>
+    <t>Shakil</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://app.niprojmidialysis.com/
+2. Click "Sign In" button
+3. Click Registration Button
+4.Click Doctor option
+5. Click Add Doctor option
+6. Input four and more then four charachers
+7. Click Save</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1071,9 +1143,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,8 +1172,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,9 +1226,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,61 +1248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,8 +1263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1268,7 +1340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,7 +1358,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,25 +1412,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,133 +1514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,6 +1717,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1660,15 +1776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1680,17 +1787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1718,171 +1814,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1892,7 +1964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2028,8 +2100,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2462,241 +2537,241 @@
   <sheetData>
     <row r="1" ht="15.5" customHeight="1"/>
     <row r="2" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" ht="26.5" customHeight="1" spans="1:5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" ht="14.75" spans="1:5">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:5">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="57" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" ht="14.75" spans="1:5">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:5">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="61" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="61">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="14.75" spans="1:5">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="61" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="61">
         <v>3</v>
       </c>
     </row>
     <row r="13" ht="14.75" spans="1:5">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="61" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="61">
         <v>3</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:5">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="61">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:5">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="60"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="61"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:5">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="61">
         <v>24</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:5">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="61" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="60"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:5">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="60"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="61"/>
     </row>
     <row r="19" ht="22" customHeight="1" spans="1:5">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="60"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="61"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:5">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="60"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="61"/>
     </row>
     <row r="21" ht="22" customHeight="1" spans="1:5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="61"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:5">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="60"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="61"/>
     </row>
     <row r="23" ht="22" customHeight="1" spans="1:5">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="60"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" ht="22" customHeight="1" spans="1:5">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="60"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2720,9 +2795,9 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2776,7 +2851,7 @@
       </c>
       <c r="L2" s="5">
         <f>COUNTIF(K9:K200,"Passed")</f>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2845,7 +2920,7 @@
       </c>
       <c r="L6" s="39">
         <f>SUM(L2:L5)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="32" customHeight="1" spans="1:11">
@@ -4401,7 +4476,7 @@
     </row>
     <row r="64" ht="42" customHeight="1" spans="1:11">
       <c r="A64" s="9">
-        <f t="shared" ref="A64:A70" si="5">SUM(A63+1)</f>
+        <f t="shared" ref="A64:A73" si="5">SUM(A63+1)</f>
         <v>52</v>
       </c>
       <c r="B64" s="9"/>
@@ -4522,12 +4597,22 @@
       <c r="E68" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
+      <c r="F68" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="J68" s="10"/>
-      <c r="K68" s="40"/>
+      <c r="K68" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="69" ht="42" customHeight="1" spans="1:11">
       <c r="A69" s="9">
@@ -4540,10 +4625,14 @@
       <c r="E69" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F69" s="10"/>
+      <c r="F69" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="G69" s="10"/>
       <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
+      <c r="I69" s="19" t="s">
+        <v>231</v>
+      </c>
       <c r="J69" s="10"/>
       <c r="K69" s="40"/>
     </row>
@@ -4558,16 +4647,20 @@
       <c r="E70" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="10"/>
+      <c r="F70" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="G70" s="10"/>
       <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
+      <c r="I70" s="19" t="s">
+        <v>232</v>
+      </c>
       <c r="J70" s="10"/>
       <c r="K70" s="40"/>
     </row>
     <row r="71" ht="42" customHeight="1" spans="1:11">
       <c r="A71" s="9">
-        <f>SUM(A70+1)</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="B71" s="9"/>
@@ -4576,1048 +4669,1072 @@
       <c r="E71" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F71" s="10"/>
+      <c r="F71" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="G71" s="10"/>
       <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
+      <c r="I71" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="J71" s="10"/>
       <c r="K71" s="40"/>
     </row>
     <row r="72" ht="42" customHeight="1" spans="1:11">
       <c r="A72" s="9">
-        <f>SUM(A71+1)</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F72" s="45"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="40"/>
+      <c r="F72" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="G72" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I72" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="73" ht="42" customHeight="1" spans="1:11">
       <c r="A73" s="9">
-        <f>SUM(A72+1)</f>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="40"/>
+      <c r="F73" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="G73" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I73" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="40" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="74" ht="42" customHeight="1" spans="1:11">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
       <c r="K74" s="40"/>
     </row>
     <row r="75" ht="42" customHeight="1" spans="1:11">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="40"/>
     </row>
     <row r="76" ht="42" customHeight="1" spans="1:11">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="40"/>
     </row>
     <row r="77" ht="42" customHeight="1" spans="1:11">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
       <c r="K77" s="40"/>
     </row>
     <row r="78" ht="42" customHeight="1" spans="1:11">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="40"/>
     </row>
     <row r="79" ht="42" customHeight="1" spans="1:11">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
       <c r="K79" s="40"/>
     </row>
     <row r="80" ht="42" customHeight="1" spans="1:11">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
       <c r="K80" s="40"/>
     </row>
     <row r="81" ht="42" customHeight="1" spans="1:11">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
       <c r="K81" s="40"/>
     </row>
     <row r="82" ht="42" customHeight="1" spans="1:11">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="45"/>
-      <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
       <c r="K82" s="40"/>
     </row>
     <row r="83" ht="42" customHeight="1" spans="1:11">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
-      <c r="G83" s="45"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="40"/>
     </row>
     <row r="84" ht="42" customHeight="1" spans="1:11">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
       <c r="K84" s="40"/>
     </row>
     <row r="85" ht="42" customHeight="1" spans="1:11">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
       <c r="K85" s="40"/>
     </row>
     <row r="86" ht="42" customHeight="1" spans="1:11">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="40"/>
     </row>
     <row r="87" ht="42" customHeight="1" spans="1:11">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
       <c r="K87" s="40"/>
     </row>
     <row r="88" ht="42" customHeight="1" spans="1:11">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="40"/>
     </row>
     <row r="89" ht="42" customHeight="1" spans="1:11">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="45"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
       <c r="K89" s="40"/>
     </row>
     <row r="90" ht="42" customHeight="1" spans="1:11">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="40"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="1:11">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="40"/>
     </row>
     <row r="92" ht="42" customHeight="1" spans="1:11">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="45"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="40"/>
     </row>
     <row r="93" ht="42" customHeight="1" spans="1:11">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="40"/>
     </row>
     <row r="94" ht="42" customHeight="1" spans="1:11">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="45"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="40"/>
     </row>
     <row r="95" ht="42" customHeight="1" spans="1:11">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="40"/>
     </row>
     <row r="96" ht="42" customHeight="1" spans="1:11">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="40"/>
     </row>
     <row r="97" ht="42" customHeight="1" spans="1:11">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="40"/>
     </row>
     <row r="98" ht="42" customHeight="1" spans="1:11">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="45"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
       <c r="K98" s="40"/>
     </row>
     <row r="99" ht="42" customHeight="1" spans="1:11">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
       <c r="K99" s="40"/>
     </row>
     <row r="100" ht="42" customHeight="1" spans="1:11">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="40"/>
     </row>
     <row r="101" ht="42" customHeight="1" spans="1:11">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
       <c r="K101" s="40"/>
     </row>
     <row r="102" ht="42" customHeight="1" spans="1:11">
-      <c r="A102" s="45"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
       <c r="K102" s="40"/>
     </row>
     <row r="103" ht="42" customHeight="1" spans="1:11">
-      <c r="A103" s="45"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="45"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
       <c r="K103" s="40"/>
     </row>
     <row r="104" ht="42" customHeight="1" spans="1:11">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="45"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
       <c r="K104" s="40"/>
     </row>
     <row r="105" ht="42" customHeight="1" spans="1:11">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="45"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
       <c r="K105" s="40"/>
     </row>
     <row r="106" ht="42" customHeight="1" spans="1:11">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="45"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
       <c r="K106" s="40"/>
     </row>
     <row r="107" ht="42" customHeight="1" spans="1:11">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="45"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
       <c r="K107" s="40"/>
     </row>
     <row r="108" ht="42" customHeight="1" spans="1:11">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="45"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
       <c r="K108" s="40"/>
     </row>
     <row r="109" ht="42" customHeight="1" spans="1:11">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="45"/>
-      <c r="J109" s="45"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
       <c r="K109" s="40"/>
     </row>
     <row r="110" ht="42" customHeight="1" spans="1:11">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
       <c r="K110" s="40"/>
     </row>
     <row r="111" ht="42" customHeight="1" spans="1:11">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
       <c r="K111" s="40"/>
     </row>
     <row r="112" ht="42" customHeight="1" spans="1:11">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
       <c r="K112" s="40"/>
     </row>
     <row r="113" ht="42" customHeight="1" spans="1:11">
-      <c r="A113" s="45"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
       <c r="K113" s="40"/>
     </row>
     <row r="114" ht="42" customHeight="1" spans="1:11">
-      <c r="A114" s="45"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
       <c r="K114" s="40"/>
     </row>
     <row r="115" ht="42" customHeight="1" spans="1:11">
-      <c r="A115" s="45"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
       <c r="K115" s="40"/>
     </row>
     <row r="116" ht="42" customHeight="1" spans="1:11">
-      <c r="A116" s="45"/>
-      <c r="B116" s="45"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="45"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
       <c r="K116" s="40"/>
     </row>
     <row r="117" ht="42" customHeight="1" spans="1:11">
-      <c r="A117" s="45"/>
-      <c r="B117" s="45"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="45"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
       <c r="K117" s="40"/>
     </row>
     <row r="118" ht="42" customHeight="1" spans="1:11">
-      <c r="A118" s="45"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="45"/>
-      <c r="I118" s="45"/>
-      <c r="J118" s="45"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
       <c r="K118" s="40"/>
     </row>
     <row r="119" ht="42" customHeight="1" spans="1:11">
-      <c r="A119" s="45"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="45"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
       <c r="K119" s="40"/>
     </row>
     <row r="120" ht="42" customHeight="1" spans="1:11">
-      <c r="A120" s="45"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="45"/>
-      <c r="J120" s="45"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
       <c r="K120" s="40"/>
     </row>
     <row r="121" ht="42" customHeight="1" spans="1:11">
-      <c r="A121" s="45"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="45"/>
-      <c r="I121" s="45"/>
-      <c r="J121" s="45"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
       <c r="K121" s="40"/>
     </row>
     <row r="122" ht="42" customHeight="1" spans="1:11">
-      <c r="A122" s="45"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="45"/>
-      <c r="I122" s="45"/>
-      <c r="J122" s="45"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
       <c r="K122" s="40"/>
     </row>
     <row r="123" ht="42" customHeight="1" spans="1:11">
-      <c r="A123" s="45"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="45"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="45"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
       <c r="K123" s="40"/>
     </row>
     <row r="124" ht="42" customHeight="1" spans="1:11">
-      <c r="A124" s="45"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="45"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="45"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
       <c r="K124" s="40"/>
     </row>
     <row r="125" ht="42" customHeight="1" spans="1:11">
-      <c r="A125" s="45"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="45"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
       <c r="K125" s="40"/>
     </row>
     <row r="126" ht="42" customHeight="1" spans="1:11">
-      <c r="A126" s="45"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="45"/>
-      <c r="I126" s="45"/>
-      <c r="J126" s="45"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
       <c r="K126" s="40"/>
     </row>
     <row r="127" ht="42" customHeight="1" spans="1:11">
-      <c r="A127" s="45"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="45"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="45"/>
-      <c r="I127" s="45"/>
-      <c r="J127" s="45"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
       <c r="K127" s="40"/>
     </row>
     <row r="128" ht="42" customHeight="1" spans="1:11">
-      <c r="A128" s="45"/>
-      <c r="B128" s="45"/>
-      <c r="C128" s="45"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="45"/>
-      <c r="I128" s="45"/>
-      <c r="J128" s="45"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
       <c r="K128" s="40"/>
     </row>
     <row r="129" ht="42" customHeight="1" spans="1:11">
-      <c r="A129" s="45"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="45"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="45"/>
-      <c r="I129" s="45"/>
-      <c r="J129" s="45"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
       <c r="K129" s="40"/>
     </row>
     <row r="130" ht="42" customHeight="1" spans="1:11">
-      <c r="A130" s="45"/>
-      <c r="B130" s="45"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="45"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="45"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="45"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
       <c r="K130" s="40"/>
     </row>
     <row r="131" ht="42" customHeight="1" spans="1:11">
-      <c r="A131" s="45"/>
-      <c r="B131" s="45"/>
-      <c r="C131" s="45"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="45"/>
-      <c r="F131" s="45"/>
-      <c r="G131" s="45"/>
-      <c r="H131" s="45"/>
-      <c r="I131" s="45"/>
-      <c r="J131" s="45"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
       <c r="K131" s="40"/>
     </row>
     <row r="132" ht="42" customHeight="1" spans="1:11">
-      <c r="A132" s="45"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="45"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="45"/>
-      <c r="F132" s="45"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="45"/>
-      <c r="I132" s="45"/>
-      <c r="J132" s="45"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
       <c r="K132" s="40"/>
     </row>
     <row r="133" ht="42" customHeight="1" spans="1:11">
-      <c r="A133" s="45"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="45"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="45"/>
-      <c r="G133" s="45"/>
-      <c r="H133" s="45"/>
-      <c r="I133" s="45"/>
-      <c r="J133" s="45"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
       <c r="K133" s="40"/>
     </row>
     <row r="134" ht="42" customHeight="1" spans="1:11">
-      <c r="A134" s="45"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="45"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="45"/>
-      <c r="H134" s="45"/>
-      <c r="I134" s="45"/>
-      <c r="J134" s="45"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
       <c r="K134" s="40"/>
     </row>
     <row r="135" ht="42" customHeight="1" spans="1:11">
-      <c r="A135" s="45"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="45"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="45"/>
-      <c r="H135" s="45"/>
-      <c r="I135" s="45"/>
-      <c r="J135" s="45"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
       <c r="K135" s="40"/>
     </row>
     <row r="136" ht="42" customHeight="1" spans="1:11">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
-      <c r="E136" s="45"/>
-      <c r="F136" s="45"/>
-      <c r="G136" s="45"/>
-      <c r="H136" s="45"/>
-      <c r="I136" s="45"/>
-      <c r="J136" s="45"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
       <c r="K136" s="40"/>
     </row>
     <row r="137" ht="42" customHeight="1" spans="1:11">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="45"/>
-      <c r="F137" s="45"/>
-      <c r="G137" s="45"/>
-      <c r="H137" s="45"/>
-      <c r="I137" s="45"/>
-      <c r="J137" s="45"/>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
       <c r="K137" s="40"/>
     </row>
     <row r="138" ht="42" customHeight="1" spans="1:11">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="45"/>
-      <c r="E138" s="45"/>
-      <c r="F138" s="45"/>
-      <c r="G138" s="45"/>
-      <c r="H138" s="45"/>
-      <c r="I138" s="45"/>
-      <c r="J138" s="45"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
       <c r="K138" s="40"/>
     </row>
     <row r="139" ht="42" customHeight="1" spans="1:11">
-      <c r="A139" s="45"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="45"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="45"/>
-      <c r="F139" s="45"/>
-      <c r="G139" s="45"/>
-      <c r="H139" s="45"/>
-      <c r="I139" s="45"/>
-      <c r="J139" s="45"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
       <c r="K139" s="40"/>
     </row>
     <row r="140" ht="42" customHeight="1" spans="1:11">
-      <c r="A140" s="45"/>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="45"/>
-      <c r="G140" s="45"/>
-      <c r="H140" s="45"/>
-      <c r="I140" s="45"/>
-      <c r="J140" s="45"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
       <c r="K140" s="40"/>
     </row>
     <row r="141" ht="42" customHeight="1" spans="1:11">
-      <c r="A141" s="45"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="45"/>
-      <c r="F141" s="45"/>
-      <c r="G141" s="45"/>
-      <c r="H141" s="45"/>
-      <c r="I141" s="45"/>
-      <c r="J141" s="45"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
       <c r="K141" s="40"/>
     </row>
     <row r="142" ht="42" customHeight="1" spans="1:11">
-      <c r="A142" s="45"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="45"/>
-      <c r="F142" s="45"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="45"/>
-      <c r="I142" s="45"/>
-      <c r="J142" s="45"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
       <c r="K142" s="40"/>
     </row>
     <row r="143" ht="42" customHeight="1" spans="1:11">
-      <c r="A143" s="45"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="45"/>
-      <c r="E143" s="45"/>
-      <c r="F143" s="45"/>
-      <c r="G143" s="45"/>
-      <c r="H143" s="45"/>
-      <c r="I143" s="45"/>
-      <c r="J143" s="45"/>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
       <c r="K143" s="40"/>
     </row>
     <row r="144" ht="42" customHeight="1" spans="1:11">
-      <c r="A144" s="45"/>
-      <c r="B144" s="45"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="45"/>
-      <c r="E144" s="45"/>
-      <c r="F144" s="45"/>
-      <c r="G144" s="45"/>
-      <c r="H144" s="45"/>
-      <c r="I144" s="45"/>
-      <c r="J144" s="45"/>
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
       <c r="K144" s="40"/>
     </row>
     <row r="145" ht="42" customHeight="1" spans="1:11">
-      <c r="A145" s="45"/>
-      <c r="B145" s="45"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="45"/>
-      <c r="F145" s="45"/>
-      <c r="G145" s="45"/>
-      <c r="H145" s="45"/>
-      <c r="I145" s="45"/>
-      <c r="J145" s="45"/>
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
       <c r="K145" s="40"/>
     </row>
     <row r="146" ht="42" customHeight="1" spans="1:11">
-      <c r="A146" s="45"/>
-      <c r="B146" s="45"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="45"/>
-      <c r="E146" s="45"/>
-      <c r="F146" s="45"/>
-      <c r="G146" s="45"/>
-      <c r="H146" s="45"/>
-      <c r="I146" s="45"/>
-      <c r="J146" s="45"/>
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
       <c r="K146" s="40"/>
     </row>
     <row r="147" ht="42" customHeight="1" spans="1:11">
-      <c r="A147" s="45"/>
-      <c r="B147" s="45"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="45"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="45"/>
-      <c r="H147" s="45"/>
-      <c r="I147" s="45"/>
-      <c r="J147" s="45"/>
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
       <c r="K147" s="40"/>
     </row>
     <row r="148" ht="42" customHeight="1" spans="1:11">
-      <c r="A148" s="45"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="45"/>
-      <c r="J148" s="45"/>
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
       <c r="K148" s="40"/>
     </row>
     <row r="149" ht="42" customHeight="1" spans="1:11">
-      <c r="A149" s="45"/>
-      <c r="B149" s="45"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="45"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="45"/>
-      <c r="J149" s="45"/>
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
       <c r="K149" s="40"/>
     </row>
     <row r="150" ht="42" customHeight="1" spans="1:11">
-      <c r="A150" s="45"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="45"/>
-      <c r="J150" s="45"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
       <c r="K150" s="40"/>
     </row>
   </sheetData>
